--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Sherif Mohammed Ahmed Sayed Abdelatif</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240229</x:t>
-  </x:si>
-  <x:si>
-    <x:t>شهد وليد سيد محمود السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shahd Waleed Sayed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230061</x:t>
@@ -653,7 +644,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -953,7 +944,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T57"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1492,7 +1483,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6247905903</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45912.3556372338</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3556372338</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1744,11 +1735,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.7185539699</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1771,14 +1760,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.7185539699</x:v>
+        <x:v>45909.4289700579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1810,7 +1801,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4289700579</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1842,7 +1833,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1874,7 +1865,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1906,7 +1897,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45909.7584180903</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1938,7 +1929,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.7584180903</x:v>
+        <x:v>45912.624840625</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1970,7 +1961,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.624840625</x:v>
+        <x:v>45909.8330846412</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2002,7 +1993,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.8330846412</x:v>
+        <x:v>45912.3571743056</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2034,7 +2025,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.3571743056</x:v>
+        <x:v>45912.6238120718</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2066,7 +2057,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.6238120718</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2098,7 +2089,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2130,7 +2121,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45912.3569139699</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2162,7 +2153,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.3569139699</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2194,7 +2185,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2226,7 +2217,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2255,10 +2246,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2281,16 +2272,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
+      <x:c r="D41" s="2" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2322,7 +2313,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2354,7 +2345,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2386,7 +2377,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2418,7 +2409,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2450,7 +2441,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45912.2634008449</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2482,7 +2473,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.2634008449</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2514,7 +2505,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2546,7 +2537,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2578,7 +2569,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2610,7 +2601,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2642,7 +2633,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2674,7 +2665,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2706,7 +2697,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2738,7 +2729,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2770,7 +2761,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6792207176</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2802,7 +2793,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6792207176</x:v>
+        <x:v>45907.7098072917</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2819,38 +2810,6 @@
       <x:c r="R57" s="2" t="s"/>
       <x:c r="S57" s="2" t="s"/>
       <x:c r="T57" s="2" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:20">
-      <x:c r="A58" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B58" s="2" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="C58" s="2" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="D58" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E58" s="3">
-        <x:v>45907.7098072917</x:v>
-      </x:c>
-      <x:c r="F58" s="2" t="s"/>
-      <x:c r="G58" s="2" t="s"/>
-      <x:c r="H58" s="2" t="s"/>
-      <x:c r="I58" s="2" t="s"/>
-      <x:c r="J58" s="2" t="s"/>
-      <x:c r="K58" s="2" t="s"/>
-      <x:c r="L58" s="2" t="s"/>
-      <x:c r="M58" s="2" t="s"/>
-      <x:c r="N58" s="2" t="s"/>
-      <x:c r="O58" s="2" t="s"/>
-      <x:c r="P58" s="2" t="s"/>
-      <x:c r="Q58" s="2" t="s"/>
-      <x:c r="R58" s="2" t="s"/>
-      <x:c r="S58" s="2" t="s"/>
-      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -361,6 +361,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammed Ali Zaher Mousa Elmeteni</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240362</x:t>
@@ -644,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -944,7 +953,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T57"/>
+  <x:dimension ref="A1:T58"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2217,7 +2226,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45919.732531713</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2246,10 +2255,10 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2272,16 +2281,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2313,7 +2322,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2377,7 +2386,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2409,7 +2418,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2441,7 +2450,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.2634008449</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2473,7 +2482,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45912.2634008449</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2505,7 +2514,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2537,7 +2546,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2569,7 +2578,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2601,7 +2610,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2633,7 +2642,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2665,7 +2674,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2697,7 +2706,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2729,7 +2738,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2761,7 +2770,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6792207176</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2793,7 +2802,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.7098072917</x:v>
+        <x:v>45907.6792207176</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2810,6 +2819,38 @@
       <x:c r="R57" s="2" t="s"/>
       <x:c r="S57" s="2" t="s"/>
       <x:c r="T57" s="2" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20">
+      <x:c r="A58" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E58" s="3">
+        <x:v>45907.7098072917</x:v>
+      </x:c>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="2" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="2" t="s"/>
+      <x:c r="Q58" s="2" t="s"/>
+      <x:c r="R58" s="2" t="s"/>
+      <x:c r="S58" s="2" t="s"/>
+      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -520,15 +520,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Seif Abdenaby Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف مصطفى احمد محمود عبدالعال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mostafa Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>2250007</x:t>
@@ -653,7 +644,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -953,7 +944,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T57"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2802,7 +2793,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6792207176</x:v>
+        <x:v>45907.7098072917</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2819,38 +2810,6 @@
       <x:c r="R57" s="2" t="s"/>
       <x:c r="S57" s="2" t="s"/>
       <x:c r="T57" s="2" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:20">
-      <x:c r="A58" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B58" s="2" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="C58" s="2" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="D58" s="2" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="E58" s="3">
-        <x:v>45907.7098072917</x:v>
-      </x:c>
-      <x:c r="F58" s="2" t="s"/>
-      <x:c r="G58" s="2" t="s"/>
-      <x:c r="H58" s="2" t="s"/>
-      <x:c r="I58" s="2" t="s"/>
-      <x:c r="J58" s="2" t="s"/>
-      <x:c r="K58" s="2" t="s"/>
-      <x:c r="L58" s="2" t="s"/>
-      <x:c r="M58" s="2" t="s"/>
-      <x:c r="N58" s="2" t="s"/>
-      <x:c r="O58" s="2" t="s"/>
-      <x:c r="P58" s="2" t="s"/>
-      <x:c r="Q58" s="2" t="s"/>
-      <x:c r="R58" s="2" t="s"/>
-      <x:c r="S58" s="2" t="s"/>
-      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Serageldeen Atef Gamal Mohamed Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد نور الدين عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Noureldin Abdalla</x:t>
   </x:si>
   <x:si>
     <x:t>1240078</x:t>
@@ -644,7 +653,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -944,7 +953,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T57"/>
+  <x:dimension ref="A1:T58"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1451,7 +1460,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.375041088</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45912.375041088</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.3556372338</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45912.3556372338</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1735,9 +1744,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.7185539699</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1760,16 +1771,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45909.4289700579</x:v>
+        <x:v>45907.7185539699</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1801,7 +1810,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45909.4289700579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1833,7 +1842,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1865,7 +1874,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1897,7 +1906,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.7584180903</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1929,7 +1938,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.624840625</x:v>
+        <x:v>45909.7584180903</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1961,7 +1970,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.8330846412</x:v>
+        <x:v>45912.624840625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1993,7 +2002,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.3571743056</x:v>
+        <x:v>45909.8330846412</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2025,7 +2034,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.6238120718</x:v>
+        <x:v>45912.3571743056</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2057,7 +2066,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45912.6238120718</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2089,7 +2098,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2121,7 +2130,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.3569139699</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2153,7 +2162,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45912.3569139699</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2185,7 +2194,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2217,7 +2226,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45919.732531713</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2249,7 +2258,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45919.732531713</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2278,10 +2287,10 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2304,16 +2313,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2345,7 +2354,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2377,7 +2386,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2409,7 +2418,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2441,7 +2450,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2473,7 +2482,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45912.2634008449</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2505,7 +2514,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45912.2634008449</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2537,7 +2546,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2569,7 +2578,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2601,7 +2610,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2633,7 +2642,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2665,7 +2674,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2697,7 +2706,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2729,7 +2738,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2761,7 +2770,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2793,7 +2802,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.7098072917</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2810,6 +2819,38 @@
       <x:c r="R57" s="2" t="s"/>
       <x:c r="S57" s="2" t="s"/>
       <x:c r="T57" s="2" t="s"/>
+    </x:row>
+    <x:row r="58" spans="1:20">
+      <x:c r="A58" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="E58" s="3">
+        <x:v>45907.7098072917</x:v>
+      </x:c>
+      <x:c r="F58" s="2" t="s"/>
+      <x:c r="G58" s="2" t="s"/>
+      <x:c r="H58" s="2" t="s"/>
+      <x:c r="I58" s="2" t="s"/>
+      <x:c r="J58" s="2" t="s"/>
+      <x:c r="K58" s="2" t="s"/>
+      <x:c r="L58" s="2" t="s"/>
+      <x:c r="M58" s="2" t="s"/>
+      <x:c r="N58" s="2" t="s"/>
+      <x:c r="O58" s="2" t="s"/>
+      <x:c r="P58" s="2" t="s"/>
+      <x:c r="Q58" s="2" t="s"/>
+      <x:c r="R58" s="2" t="s"/>
+      <x:c r="S58" s="2" t="s"/>
+      <x:c r="T58" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4250161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240020</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>Tasnim Osama Mohamed Abdelfatah Othman</x:t>
   </x:si>
   <x:si>
+    <x:t>4250169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240045</x:t>
   </x:si>
   <x:si>
@@ -229,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Amgad Hassan Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ايهاب حسين مجاهد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ihab</x:t>
   </x:si>
   <x:si>
     <x:t>1240103</x:t>
@@ -653,7 +680,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E58" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -953,7 +980,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T58"/>
+  <x:dimension ref="A1:T61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -962,7 +989,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.370625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.540625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="44.110625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1044,7 +1071,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.7114813657</x:v>
+        <x:v>45922.3696577546</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1076,7 +1103,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.415383912</x:v>
+        <x:v>45907.7114813657</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1108,7 +1135,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45907.415383912</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1140,7 +1167,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6697554745</x:v>
+        <x:v>45907.6651261574</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1172,7 +1199,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.673544213</x:v>
+        <x:v>45907.6697554745</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1204,7 +1231,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45907.673544213</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1236,7 +1263,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6657106829</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1268,7 +1295,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4151114583</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1300,7 +1327,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6741804745</x:v>
+        <x:v>45907.6657106829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1332,7 +1359,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45908.4151114583</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1364,7 +1391,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6741804745</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1396,7 +1423,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1428,7 +1455,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4147726852</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1460,7 +1487,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1492,7 +1519,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.375041088</x:v>
+        <x:v>45908.4147726852</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1524,7 +1551,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1556,7 +1583,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6670371181</x:v>
+        <x:v>45912.375041088</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1588,7 +1615,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4155668981</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1620,7 +1647,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.3556372338</x:v>
+        <x:v>45907.6670371181</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1652,7 +1679,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45908.4155668981</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1684,7 +1711,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45912.3556372338</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1716,7 +1743,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1748,7 +1775,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6715989236</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1776,9 +1803,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.7185539699</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1801,16 +1830,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4289700579</x:v>
+        <x:v>45922.3776882292</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1833,16 +1862,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6646372685</x:v>
+        <x:v>45907.6715989236</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1865,16 +1894,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.7185539699</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1906,7 +1933,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45909.4289700579</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1938,7 +1965,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.7584180903</x:v>
+        <x:v>45907.6646372685</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1970,7 +1997,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.624840625</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -2002,7 +2029,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.8330846412</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -2034,7 +2061,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.3571743056</x:v>
+        <x:v>45909.7584180903</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2066,7 +2093,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.6238120718</x:v>
+        <x:v>45912.624840625</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2098,7 +2125,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45909.8330846412</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2130,7 +2157,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45912.3571743056</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2162,7 +2189,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.3569139699</x:v>
+        <x:v>45912.6238120718</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2194,7 +2221,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2226,7 +2253,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2258,7 +2285,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45919.732531713</x:v>
+        <x:v>45912.3569139699</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2290,7 +2317,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2319,10 +2346,10 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2345,16 +2372,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45919.732531713</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2377,16 +2404,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2409,16 +2436,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2450,7 +2477,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2482,7 +2509,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2514,7 +2541,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45912.2634008449</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2546,7 +2573,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2578,7 +2605,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2610,7 +2637,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45912.2634008449</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2642,7 +2669,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2674,7 +2701,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2706,7 +2733,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2738,7 +2765,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2770,7 +2797,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2802,7 +2829,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2834,7 +2861,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.7098072917</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2851,6 +2878,102 @@
       <x:c r="R58" s="2" t="s"/>
       <x:c r="S58" s="2" t="s"/>
       <x:c r="T58" s="2" t="s"/>
+    </x:row>
+    <x:row r="59" spans="1:20">
+      <x:c r="A59" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E59" s="3">
+        <x:v>45907.6653748843</x:v>
+      </x:c>
+      <x:c r="F59" s="2" t="s"/>
+      <x:c r="G59" s="2" t="s"/>
+      <x:c r="H59" s="2" t="s"/>
+      <x:c r="I59" s="2" t="s"/>
+      <x:c r="J59" s="2" t="s"/>
+      <x:c r="K59" s="2" t="s"/>
+      <x:c r="L59" s="2" t="s"/>
+      <x:c r="M59" s="2" t="s"/>
+      <x:c r="N59" s="2" t="s"/>
+      <x:c r="O59" s="2" t="s"/>
+      <x:c r="P59" s="2" t="s"/>
+      <x:c r="Q59" s="2" t="s"/>
+      <x:c r="R59" s="2" t="s"/>
+      <x:c r="S59" s="2" t="s"/>
+      <x:c r="T59" s="2" t="s"/>
+    </x:row>
+    <x:row r="60" spans="1:20">
+      <x:c r="A60" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D60" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="E60" s="3">
+        <x:v>45907.6646291667</x:v>
+      </x:c>
+      <x:c r="F60" s="2" t="s"/>
+      <x:c r="G60" s="2" t="s"/>
+      <x:c r="H60" s="2" t="s"/>
+      <x:c r="I60" s="2" t="s"/>
+      <x:c r="J60" s="2" t="s"/>
+      <x:c r="K60" s="2" t="s"/>
+      <x:c r="L60" s="2" t="s"/>
+      <x:c r="M60" s="2" t="s"/>
+      <x:c r="N60" s="2" t="s"/>
+      <x:c r="O60" s="2" t="s"/>
+      <x:c r="P60" s="2" t="s"/>
+      <x:c r="Q60" s="2" t="s"/>
+      <x:c r="R60" s="2" t="s"/>
+      <x:c r="S60" s="2" t="s"/>
+      <x:c r="T60" s="2" t="s"/>
+    </x:row>
+    <x:row r="61" spans="1:20">
+      <x:c r="A61" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="E61" s="3">
+        <x:v>45907.7098072917</x:v>
+      </x:c>
+      <x:c r="F61" s="2" t="s"/>
+      <x:c r="G61" s="2" t="s"/>
+      <x:c r="H61" s="2" t="s"/>
+      <x:c r="I61" s="2" t="s"/>
+      <x:c r="J61" s="2" t="s"/>
+      <x:c r="K61" s="2" t="s"/>
+      <x:c r="L61" s="2" t="s"/>
+      <x:c r="M61" s="2" t="s"/>
+      <x:c r="N61" s="2" t="s"/>
+      <x:c r="O61" s="2" t="s"/>
+      <x:c r="P61" s="2" t="s"/>
+      <x:c r="Q61" s="2" t="s"/>
+      <x:c r="R61" s="2" t="s"/>
+      <x:c r="S61" s="2" t="s"/>
+      <x:c r="T61" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -352,6 +352,15 @@
   </x:si>
   <x:si>
     <x:t>Loay mohamed ahmed ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لوجي جورج ماهر شمعي بطرس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lugi George maher</x:t>
   </x:si>
   <x:si>
     <x:t>1240354</x:t>
@@ -680,7 +689,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -980,7 +989,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T61"/>
+  <x:dimension ref="A1:T62"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2221,7 +2230,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45923.9162092245</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2253,7 +2262,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6659381134</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2285,7 +2294,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.3569139699</x:v>
+        <x:v>45907.6659381134</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2317,7 +2326,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45912.3569139699</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2349,7 +2358,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2381,7 +2390,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45919.732531713</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2413,7 +2422,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45919.732531713</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2442,10 +2451,10 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2468,16 +2477,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2509,7 +2518,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2541,7 +2550,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2573,7 +2582,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2605,7 +2614,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2637,7 +2646,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45912.2634008449</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2669,7 +2678,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45912.2634008449</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2701,7 +2710,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2733,7 +2742,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2765,7 +2774,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2797,7 +2806,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2829,7 +2838,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2861,7 +2870,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2893,7 +2902,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2925,7 +2934,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2957,7 +2966,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.7098072917</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -2974,6 +2983,38 @@
       <x:c r="R61" s="2" t="s"/>
       <x:c r="S61" s="2" t="s"/>
       <x:c r="T61" s="2" t="s"/>
+    </x:row>
+    <x:row r="62" spans="1:20">
+      <x:c r="A62" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D62" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="E62" s="3">
+        <x:v>45907.7098072917</x:v>
+      </x:c>
+      <x:c r="F62" s="2" t="s"/>
+      <x:c r="G62" s="2" t="s"/>
+      <x:c r="H62" s="2" t="s"/>
+      <x:c r="I62" s="2" t="s"/>
+      <x:c r="J62" s="2" t="s"/>
+      <x:c r="K62" s="2" t="s"/>
+      <x:c r="L62" s="2" t="s"/>
+      <x:c r="M62" s="2" t="s"/>
+      <x:c r="N62" s="2" t="s"/>
+      <x:c r="O62" s="2" t="s"/>
+      <x:c r="P62" s="2" t="s"/>
+      <x:c r="Q62" s="2" t="s"/>
+      <x:c r="R62" s="2" t="s"/>
+      <x:c r="S62" s="2" t="s"/>
+      <x:c r="T62" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -78,15 +78,6 @@
     <x:t>Eyad Hossni Mohammed ElBakry</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240212</x:t>
   </x:si>
   <x:si>
@@ -175,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Salma Mohamed Noureldin Abdalla</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف محمد وائل سعيد محمد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saief Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240078</x:t>
@@ -1112,7 +1112,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.7114813657</x:v>
+        <x:v>45927.4308987616</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1240,7 +1240,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.673544213</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1272,7 +1272,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1304,7 +1304,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45922.3727138889</x:v>
+        <x:v>45907.6657106829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1336,7 +1336,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6657106829</x:v>
+        <x:v>45908.4151114583</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1368,7 +1368,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4151114583</x:v>
+        <x:v>45907.6741804745</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1400,7 +1400,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6741804745</x:v>
+        <x:v>45907.6659448264</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1432,7 +1432,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6659448264</x:v>
+        <x:v>45907.6659533565</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1464,7 +1464,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6659533565</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1496,7 +1496,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45908.4147726852</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1528,7 +1528,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4147726852</x:v>
+        <x:v>45921.5328402778</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1560,7 +1560,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.5328402778</x:v>
+        <x:v>45927.4162309028</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -2422,7 +2422,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45919.732531713</x:v>
+        <x:v>45927.6340586806</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -457,6 +457,15 @@
   </x:si>
   <x:si>
     <x:t>MARAWAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد سمير محمد على الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Ahmed Samir</x:t>
   </x:si>
   <x:si>
     <x:t>1240266</x:t>
@@ -689,7 +698,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E62" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E63" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -989,7 +998,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T62"/>
+  <x:dimension ref="A1:T63"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2614,7 +2623,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2646,7 +2655,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2678,7 +2687,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45912.2634008449</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2710,7 +2719,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45912.2634008449</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2742,7 +2751,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2774,7 +2783,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2806,7 +2815,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2838,7 +2847,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2870,7 +2879,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2902,7 +2911,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2934,7 +2943,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2966,7 +2975,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -2998,7 +3007,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.7098072917</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3015,6 +3024,38 @@
       <x:c r="R62" s="2" t="s"/>
       <x:c r="S62" s="2" t="s"/>
       <x:c r="T62" s="2" t="s"/>
+    </x:row>
+    <x:row r="63" spans="1:20">
+      <x:c r="A63" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="D63" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E63" s="3">
+        <x:v>45907.7098072917</x:v>
+      </x:c>
+      <x:c r="F63" s="2" t="s"/>
+      <x:c r="G63" s="2" t="s"/>
+      <x:c r="H63" s="2" t="s"/>
+      <x:c r="I63" s="2" t="s"/>
+      <x:c r="J63" s="2" t="s"/>
+      <x:c r="K63" s="2" t="s"/>
+      <x:c r="L63" s="2" t="s"/>
+      <x:c r="M63" s="2" t="s"/>
+      <x:c r="N63" s="2" t="s"/>
+      <x:c r="O63" s="2" t="s"/>
+      <x:c r="P63" s="2" t="s"/>
+      <x:c r="Q63" s="2" t="s"/>
+      <x:c r="R63" s="2" t="s"/>
+      <x:c r="S63" s="2" t="s"/>
+      <x:c r="T63" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -397,6 +397,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد سعد السيد محمد دبور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240360</x:t>
@@ -698,7 +707,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E63" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E64" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -998,7 +1007,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T63"/>
+  <x:dimension ref="A1:T64"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2399,7 +2408,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45931.4457999653</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2431,7 +2440,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.6340586806</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2463,7 +2472,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45927.6340586806</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2492,10 +2501,10 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2518,16 +2527,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2559,7 +2568,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2591,7 +2600,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2623,7 +2632,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45929.4058627315</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2655,7 +2664,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2687,7 +2696,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2719,7 +2728,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45912.2634008449</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2751,7 +2760,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45912.2634008449</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2783,7 +2792,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2815,7 +2824,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2847,7 +2856,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2879,7 +2888,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2911,7 +2920,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2943,7 +2952,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2975,7 +2984,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3007,7 +3016,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3039,7 +3048,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.7098072917</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3056,6 +3065,38 @@
       <x:c r="R63" s="2" t="s"/>
       <x:c r="S63" s="2" t="s"/>
       <x:c r="T63" s="2" t="s"/>
+    </x:row>
+    <x:row r="64" spans="1:20">
+      <x:c r="A64" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D64" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="E64" s="3">
+        <x:v>45907.7098072917</x:v>
+      </x:c>
+      <x:c r="F64" s="2" t="s"/>
+      <x:c r="G64" s="2" t="s"/>
+      <x:c r="H64" s="2" t="s"/>
+      <x:c r="I64" s="2" t="s"/>
+      <x:c r="J64" s="2" t="s"/>
+      <x:c r="K64" s="2" t="s"/>
+      <x:c r="L64" s="2" t="s"/>
+      <x:c r="M64" s="2" t="s"/>
+      <x:c r="N64" s="2" t="s"/>
+      <x:c r="O64" s="2" t="s"/>
+      <x:c r="P64" s="2" t="s"/>
+      <x:c r="Q64" s="2" t="s"/>
+      <x:c r="R64" s="2" t="s"/>
+      <x:c r="S64" s="2" t="s"/>
+      <x:c r="T64" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS102_Lecture-35457.xlsx
+++ b/downloaded_files/CMPS102_Lecture-35457.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -397,15 +397,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد سعد السيد محمد دبور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Saad El-Sayed Mohamed Dabour</x:t>
   </x:si>
   <x:si>
     <x:t>1240360</x:t>
@@ -707,7 +698,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E64" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E63" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -1007,7 +998,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T64"/>
+  <x:dimension ref="A1:T63"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2408,7 +2399,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45931.4457999653</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2440,7 +2431,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45927.6340586806</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2472,7 +2463,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45927.6340586806</x:v>
+        <x:v>45908.4149094097</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2501,10 +2492,10 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45908.4149094097</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2527,16 +2518,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="C47" s="2" t="s">
+      <x:c r="D47" s="2" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2568,7 +2559,7 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2600,7 +2591,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2632,7 +2623,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45929.4058627315</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2664,7 +2655,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E51" s="3">
-        <x:v>45929.4058627315</x:v>
+        <x:v>45907.6649169792</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2696,7 +2687,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="E52" s="3">
-        <x:v>45907.6649169792</x:v>
+        <x:v>45907.668855706</x:v>
       </x:c>
       <x:c r="F52" s="2" t="s"/>
       <x:c r="G52" s="2" t="s"/>
@@ -2728,7 +2719,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E53" s="3">
-        <x:v>45907.668855706</x:v>
+        <x:v>45912.2634008449</x:v>
       </x:c>
       <x:c r="F53" s="2" t="s"/>
       <x:c r="G53" s="2" t="s"/>
@@ -2760,7 +2751,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="E54" s="3">
-        <x:v>45912.2634008449</x:v>
+        <x:v>45912.3683926273</x:v>
       </x:c>
       <x:c r="F54" s="2" t="s"/>
       <x:c r="G54" s="2" t="s"/>
@@ -2792,7 +2783,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="E55" s="3">
-        <x:v>45912.3683926273</x:v>
+        <x:v>45907.6758896991</x:v>
       </x:c>
       <x:c r="F55" s="2" t="s"/>
       <x:c r="G55" s="2" t="s"/>
@@ -2824,7 +2815,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E56" s="3">
-        <x:v>45907.6758896991</x:v>
+        <x:v>45908.4277089468</x:v>
       </x:c>
       <x:c r="F56" s="2" t="s"/>
       <x:c r="G56" s="2" t="s"/>
@@ -2856,7 +2847,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E57" s="3">
-        <x:v>45908.4277089468</x:v>
+        <x:v>45908.4174194097</x:v>
       </x:c>
       <x:c r="F57" s="2" t="s"/>
       <x:c r="G57" s="2" t="s"/>
@@ -2888,7 +2879,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="E58" s="3">
-        <x:v>45908.4174194097</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F58" s="2" t="s"/>
       <x:c r="G58" s="2" t="s"/>
@@ -2920,7 +2911,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="E59" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6649788194</x:v>
       </x:c>
       <x:c r="F59" s="2" t="s"/>
       <x:c r="G59" s="2" t="s"/>
@@ -2952,7 +2943,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="E60" s="3">
-        <x:v>45907.6649788194</x:v>
+        <x:v>45907.4150058681</x:v>
       </x:c>
       <x:c r="F60" s="2" t="s"/>
       <x:c r="G60" s="2" t="s"/>
@@ -2984,7 +2975,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="E61" s="3">
-        <x:v>45907.4150058681</x:v>
+        <x:v>45907.6653748843</x:v>
       </x:c>
       <x:c r="F61" s="2" t="s"/>
       <x:c r="G61" s="2" t="s"/>
@@ -3016,7 +3007,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="E62" s="3">
-        <x:v>45907.6653748843</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F62" s="2" t="s"/>
       <x:c r="G62" s="2" t="s"/>
@@ -3048,7 +3039,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="E63" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.7098072917</x:v>
       </x:c>
       <x:c r="F63" s="2" t="s"/>
       <x:c r="G63" s="2" t="s"/>
@@ -3065,38 +3056,6 @@
       <x:c r="R63" s="2" t="s"/>
       <x:c r="S63" s="2" t="s"/>
       <x:c r="T63" s="2" t="s"/>
-    </x:row>
-    <x:row r="64" spans="1:20">
-      <x:c r="A64" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B64" s="2" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="C64" s="2" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="D64" s="2" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="E64" s="3">
-        <x:v>45907.7098072917</x:v>
-      </x:c>
-      <x:c r="F64" s="2" t="s"/>
-      <x:c r="G64" s="2" t="s"/>
-      <x:c r="H64" s="2" t="s"/>
-      <x:c r="I64" s="2" t="s"/>
-      <x:c r="J64" s="2" t="s"/>
-      <x:c r="K64" s="2" t="s"/>
-      <x:c r="L64" s="2" t="s"/>
-      <x:c r="M64" s="2" t="s"/>
-      <x:c r="N64" s="2" t="s"/>
-      <x:c r="O64" s="2" t="s"/>
-      <x:c r="P64" s="2" t="s"/>
-      <x:c r="Q64" s="2" t="s"/>
-      <x:c r="R64" s="2" t="s"/>
-      <x:c r="S64" s="2" t="s"/>
-      <x:c r="T64" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
